--- a/templete/templete.eWES.xlsx
+++ b/templete/templete.eWES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mioka\AppData\Local\Temp\scp40789\data1\labTools\worksheet\version\v2.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mioka\AppData\Local\Temp\scp35178\data1\labTools\worksheet\version\v3.0.0\templete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF52CE-8771-404C-B14F-6BFB2EC790A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C72075-376D-4061-8B7F-36AF05F6A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19935" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_sheet" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>additional_worksheet ツールでワークシートに qc_infoシートを追加する</t>
-    <rPh sb="44" eb="46">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レポートの検体情報とTRFを比較し、検体情報に誤りがないか確認する</t>
     <rPh sb="5" eb="9">
       <t>ケンタイジョウホウ</t>
@@ -252,22 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check_progress ツールでSampleSheetとDB登録内容が一致しているかを確認する</t>
-    <rPh sb="33" eb="35">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ワークシート作成時刻</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -295,19 +272,6 @@
     <t>server_backup ツールでバックアップサーバーへのデータバックアップを実施する</t>
     <rPh sb="40" eb="42">
       <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>check_progress ツールで全サンプルの解析が終了し、report.jsonとreport.pdf が作成されていることを確認する</t>
-    <rPh sb="19" eb="20">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -541,6 +505,42 @@
   </si>
   <si>
     <t>c.3034C&gt;T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worksheet check でSampleSheetとDB登録内容が一致しているかを確認する</t>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worksheet check で全サンプルの解析が終了し、report.jsonとreport.pdf が作成されていることを確認する</t>
+    <rPh sb="17" eb="18">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worksheet addition でワークシートに qc_infoシートを追加する</t>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -948,6 +948,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,39 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,7 +1351,7 @@
   <dimension ref="B1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:I17"/>
+      <selection activeCell="C11" sqref="C11:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1373,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -1392,19 +1392,19 @@
       <c r="J2" s="26"/>
       <c r="K2" s="27"/>
       <c r="L2" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="27"/>
       <c r="N2" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="27"/>
       <c r="P2" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="27"/>
       <c r="R2" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
@@ -1452,17 +1452,17 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="15"/>
@@ -1489,7 +1489,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="54"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="36"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1514,7 +1514,7 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="55"/>
-      <c r="I7" s="61"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="56"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1535,7 +1535,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="57"/>
-      <c r="I8" s="62"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="58"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1565,7 +1565,7 @@
       <c r="Q10" s="47"/>
       <c r="R10" s="48"/>
       <c r="S10" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T10" s="42"/>
     </row>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -1592,7 +1592,7 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="45"/>
       <c r="S11" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T11" s="24"/>
     </row>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -1619,7 +1619,7 @@
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" s="24"/>
     </row>
@@ -1628,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -1646,7 +1646,7 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="45"/>
       <c r="S13" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T13" s="24"/>
     </row>
@@ -1655,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -1673,7 +1673,7 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T14" s="24"/>
     </row>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
@@ -1700,43 +1700,43 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="45"/>
       <c r="S15" s="54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T15" s="36"/>
     </row>
     <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="50"/>
-      <c r="C16" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="77"/>
       <c r="J16" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="L16" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
       <c r="Q16" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="56"/>
@@ -1744,12 +1744,12 @@
     <row r="17" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="50"/>
       <c r="C17" s="59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
       <c r="F17" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
@@ -1758,14 +1758,14 @@
         <v>5</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
@@ -1773,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="56"/>
@@ -1781,12 +1781,12 @@
     <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="50"/>
       <c r="C18" s="59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
       <c r="F18" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
@@ -1795,14 +1795,14 @@
         <v>5</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
@@ -1810,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="56"/>
@@ -1818,12 +1818,12 @@
     <row r="19" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="51"/>
       <c r="C19" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
@@ -1832,14 +1832,14 @@
         <v>5</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
@@ -1847,7 +1847,7 @@
         <v>50</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S19" s="57"/>
       <c r="T19" s="58"/>
@@ -1857,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="79"/>
       <c r="E20" s="79"/>
@@ -1875,7 +1875,7 @@
       <c r="Q20" s="79"/>
       <c r="R20" s="80"/>
       <c r="S20" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T20" s="24"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
@@ -1902,10 +1902,10 @@
       <c r="Q21" s="44"/>
       <c r="R21" s="45"/>
       <c r="S21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
@@ -1913,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -1931,36 +1931,36 @@
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
+      <c r="C23" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
       <c r="S23" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T23" s="24"/>
     </row>
@@ -1969,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -1987,14 +1987,14 @@
       <c r="Q24" s="34"/>
       <c r="R24" s="35"/>
       <c r="S24" s="54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T24" s="36"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="50"/>
       <c r="C25" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -2017,7 +2017,7 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="51"/>
       <c r="C26" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -2026,17 +2026,17 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26" s="53"/>
       <c r="O26" s="53"/>
       <c r="P26" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="6"/>
@@ -2048,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -2066,7 +2066,7 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="22"/>
       <c r="S27" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T27" s="24"/>
     </row>
@@ -2075,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2093,7 +2093,7 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="22"/>
       <c r="S28" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T28" s="24"/>
     </row>
@@ -2102,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -2120,7 +2120,7 @@
       <c r="Q29" s="21"/>
       <c r="R29" s="22"/>
       <c r="S29" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T29" s="24"/>
     </row>
@@ -2146,460 +2146,460 @@
       <c r="T30" s="8"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="63"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="66"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="66"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="66"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="69"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B36" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="65"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="68"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="68"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="68"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="71"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B36" s="63" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="63"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="66"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="66"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="66"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="69"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B41" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="65"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="68"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="68"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="68"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="71"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B41" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="65"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="63"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="68"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="66"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="68"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="66"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="68"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="66"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="68"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="66"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="66"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B47" s="66"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="68"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="66"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="68"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="66"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="68"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="66"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="68"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="66"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="71"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="69"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B53" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="15"/>
       <c r="E53" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -2610,20 +2610,20 @@
       <c r="L53"/>
       <c r="M53" s="4"/>
       <c r="N53" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
       <c r="Q53" s="28"/>
       <c r="R53" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="15"/>
     </row>
     <row r="54" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="54"/>
-      <c r="C54" s="60"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="36"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="55" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="55"/>
-      <c r="C55" s="61"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B56" s="57"/>
-      <c r="C56" s="62"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="58"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -2691,7 +2691,6 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="E53:G53"/>
     <mergeCell ref="E54:G56"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="B15:B19"/>
@@ -2707,6 +2706,11 @@
     <mergeCell ref="C20:R20"/>
     <mergeCell ref="B54:D56"/>
     <mergeCell ref="B53:D53"/>
+    <mergeCell ref="N54:Q55"/>
+    <mergeCell ref="S24:T26"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="C22:R22"/>
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="N53:Q53"/>
     <mergeCell ref="R53:T53"/>
@@ -2717,11 +2721,7 @@
     <mergeCell ref="B31:T35"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S29:T29"/>
-    <mergeCell ref="N54:Q55"/>
-    <mergeCell ref="S24:T26"/>
-    <mergeCell ref="C23:R23"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="E53:G53"/>
     <mergeCell ref="C21:R21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C26:I26"/>
@@ -2764,7 +2764,7 @@
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.55118110236220474" bottom="0.55118110236220474" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LGxC-A-PR10-F01</oddFooter>
+    <oddFooter>&amp;LGxC-A-PR10-F01&amp;R版: 01</oddFooter>
   </headerFooter>
 </worksheet>
 </file>